--- a/mf-intelligence/data/separated_files/nippon/Nippon India Arbitrage Fund/Nippon India Arbitrage Fund_Mar_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Arbitrage Fund/Nippon India Arbitrage Fund_Mar_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H315"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -5497,4456 +5497,6 @@
       <c r="H157" t="n">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>118719</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>INF204K01ZP3</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Nippon India Money Market Fund Dir Pl-Growth-Gr Op</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="n">
-        <v>4132788.7926</v>
-      </c>
-      <c r="F158" t="n">
-        <v>170350.8</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="H158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>118701</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>INF204K01ZH0</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Nippon India Liquid Fund-Direct Growth Plan</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="n">
-        <v>2653348.91</v>
-      </c>
-      <c r="F159" t="n">
-        <v>168405.27</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.1226</v>
-      </c>
-      <c r="H159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr"/>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Long/Short</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Quantity.</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Market/Fair Value (Rs. in Lacs).</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> % to NAV.</t>
-        </is>
-      </c>
-      <c r="H160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr"/>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Reliance Industries Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>3940500</v>
-      </c>
-      <c r="F161" t="n">
-        <v>50499.48</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.0368</v>
-      </c>
-      <c r="H161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>ICICI Bank Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>3655400</v>
-      </c>
-      <c r="F162" t="n">
-        <v>49550.77</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.0361</v>
-      </c>
-      <c r="H162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr"/>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Axis Bank Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>3865000</v>
-      </c>
-      <c r="F163" t="n">
-        <v>42721.78</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.0311</v>
-      </c>
-      <c r="H163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr"/>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Jio Financial Services Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>14582700</v>
-      </c>
-      <c r="F164" t="n">
-        <v>33343.34</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.0243</v>
-      </c>
-      <c r="H164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr"/>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>ITC Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Diversified FMCG</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>6830400</v>
-      </c>
-      <c r="F165" t="n">
-        <v>28103.68</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.0205</v>
-      </c>
-      <c r="H165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr"/>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Hindustan Aeronautics Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>604200</v>
-      </c>
-      <c r="F166" t="n">
-        <v>25379.42</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="H166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr"/>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Infosys Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>1464000</v>
-      </c>
-      <c r="F167" t="n">
-        <v>23103.38</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="H167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr"/>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>HDFC Bank Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>1246300</v>
-      </c>
-      <c r="F168" t="n">
-        <v>22877.08</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.0167</v>
-      </c>
-      <c r="H168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr"/>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Tata Consultancy Services Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>631225</v>
-      </c>
-      <c r="F169" t="n">
-        <v>22847.5</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.0166</v>
-      </c>
-      <c r="H169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr"/>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Mahindra &amp; Mahindra Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>844200</v>
-      </c>
-      <c r="F170" t="n">
-        <v>22610.21</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="H170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr"/>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Bank of Baroda_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>9819225</v>
-      </c>
-      <c r="F171" t="n">
-        <v>22554.76</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.0164</v>
-      </c>
-      <c r="H171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr"/>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>UltraTech Cement Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>194300</v>
-      </c>
-      <c r="F172" t="n">
-        <v>22485.95</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.0164</v>
-      </c>
-      <c r="H172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr"/>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Adani Enterprises Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Metals &amp; Minerals Trading</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>875700</v>
-      </c>
-      <c r="F173" t="n">
-        <v>20355.21</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.0148</v>
-      </c>
-      <c r="H173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr"/>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>State Bank of India_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>2498250</v>
-      </c>
-      <c r="F174" t="n">
-        <v>19375.18</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.0141</v>
-      </c>
-      <c r="H174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr"/>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Canara Bank_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>17901000</v>
-      </c>
-      <c r="F175" t="n">
-        <v>16017.81</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.0117</v>
-      </c>
-      <c r="H175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr"/>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>JSW Steel Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>1338525</v>
-      </c>
-      <c r="F176" t="n">
-        <v>14268.01</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.0104</v>
-      </c>
-      <c r="H176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr"/>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Vodafone Idea Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>190200000</v>
-      </c>
-      <c r="F177" t="n">
-        <v>13028.7</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.0095</v>
-      </c>
-      <c r="H177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr"/>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Crompton Greaves Consumer Electricals Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>3634200</v>
-      </c>
-      <c r="F178" t="n">
-        <v>12928.67</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="H178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr"/>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Trent Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>235000</v>
-      </c>
-      <c r="F179" t="n">
-        <v>12545.95</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.0091</v>
-      </c>
-      <c r="H179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr"/>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Laurus Labs Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>2004300</v>
-      </c>
-      <c r="F180" t="n">
-        <v>12345.49</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="H180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr"/>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Vedanta Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Diversified Metals</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>2638100</v>
-      </c>
-      <c r="F181" t="n">
-        <v>12273.76</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="H181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr"/>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Hindustan Unilever Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>Diversified FMCG</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>534000</v>
-      </c>
-      <c r="F182" t="n">
-        <v>12122.07</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.008800000000000001</v>
-      </c>
-      <c r="H182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr"/>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>GMR Airports Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Transport Infrastructure</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>15879375</v>
-      </c>
-      <c r="F183" t="n">
-        <v>12088.97</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.008800000000000001</v>
-      </c>
-      <c r="H183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr"/>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Aurobindo Pharma Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>999350</v>
-      </c>
-      <c r="F184" t="n">
-        <v>11658.92</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="H184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr"/>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Bharti Airtel Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>657875</v>
-      </c>
-      <c r="F185" t="n">
-        <v>11466.43</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="H185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr"/>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Max Financial Services Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>991200</v>
-      </c>
-      <c r="F186" t="n">
-        <v>11434.98</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="H186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr"/>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Tech Mahindra Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>799800</v>
-      </c>
-      <c r="F187" t="n">
-        <v>11370.76</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="H187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr"/>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>REC Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>2631000</v>
-      </c>
-      <c r="F188" t="n">
-        <v>11354.08</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="H188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr"/>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>One 97 Communications Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Financial Technology (Fintech)</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>1435200</v>
-      </c>
-      <c r="F189" t="n">
-        <v>11280.67</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="H189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr"/>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Indian Railway Catering And Tourism Corporation Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>1407000</v>
-      </c>
-      <c r="F190" t="n">
-        <v>10270.4</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="H190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr"/>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Aditya Birla Capital Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>5451300</v>
-      </c>
-      <c r="F191" t="n">
-        <v>10123.06</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.0074</v>
-      </c>
-      <c r="H191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr"/>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Aditya Birla Fashion and Retail Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>3907800</v>
-      </c>
-      <c r="F192" t="n">
-        <v>10017.65</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.0073</v>
-      </c>
-      <c r="H192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr"/>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Oil &amp; Natural Gas Corporation Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>3857700</v>
-      </c>
-      <c r="F193" t="n">
-        <v>9551.67</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="H193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr"/>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Bajaj Finance Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>104125</v>
-      </c>
-      <c r="F194" t="n">
-        <v>9360.209999999999</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="H194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr"/>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Bandhan Bank Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>6356000</v>
-      </c>
-      <c r="F195" t="n">
-        <v>9354.129999999999</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="H195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr"/>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Dixon Technologies (India) Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>68400</v>
-      </c>
-      <c r="F196" t="n">
-        <v>9069.629999999999</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.0066</v>
-      </c>
-      <c r="H196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr"/>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>IndusInd Bank Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>1371500</v>
-      </c>
-      <c r="F197" t="n">
-        <v>8931.889999999999</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="H197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr"/>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Hindalco Industries Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Non - Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E198" t="n">
-        <v>1251600</v>
-      </c>
-      <c r="F198" t="n">
-        <v>8582.219999999999</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.0062</v>
-      </c>
-      <c r="H198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr"/>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Tube Investments of India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E199" t="n">
-        <v>300750</v>
-      </c>
-      <c r="F199" t="n">
-        <v>8359.65</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="H199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr"/>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>SBI Cards and Payment Services Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E200" t="n">
-        <v>904000</v>
-      </c>
-      <c r="F200" t="n">
-        <v>7962.88</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="H200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr"/>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Tata Communications Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="E201" t="n">
-        <v>471250</v>
-      </c>
-      <c r="F201" t="n">
-        <v>7479.92</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="H201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr"/>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Punjab National Bank_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E202" t="n">
-        <v>7728000</v>
-      </c>
-      <c r="F202" t="n">
-        <v>7451.34</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="H202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr"/>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>Power Grid Corporation of India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E203" t="n">
-        <v>2343600</v>
-      </c>
-      <c r="F203" t="n">
-        <v>6836.28</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr"/>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>Maruti Suzuki India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E204" t="n">
-        <v>55750</v>
-      </c>
-      <c r="F204" t="n">
-        <v>6437.9</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="H204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr"/>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Cyient Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>IT - Services</t>
-        </is>
-      </c>
-      <c r="E205" t="n">
-        <v>502500</v>
-      </c>
-      <c r="F205" t="n">
-        <v>6390.29</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="H205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr"/>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>Adani Ports and Special Economic Zone Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>Transport Infrastructure</t>
-        </is>
-      </c>
-      <c r="E206" t="n">
-        <v>522800</v>
-      </c>
-      <c r="F206" t="n">
-        <v>6209.3</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.0045</v>
-      </c>
-      <c r="H206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr"/>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>Hindustan Copper Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>Non - Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E207" t="n">
-        <v>2734800</v>
-      </c>
-      <c r="F207" t="n">
-        <v>6061.14</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="H207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr"/>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>GAIL (India) Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="E208" t="n">
-        <v>3221850</v>
-      </c>
-      <c r="F208" t="n">
-        <v>5918.54</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="H208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr"/>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Torrent Pharmaceuticals Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E209" t="n">
-        <v>180000</v>
-      </c>
-      <c r="F209" t="n">
-        <v>5844.51</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="H209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr"/>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>ICICI Prudential Life Insurance Company Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E210" t="n">
-        <v>1023750</v>
-      </c>
-      <c r="F210" t="n">
-        <v>5787.26</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="H210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr"/>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Jindal Steel &amp; Power Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E211" t="n">
-        <v>618750</v>
-      </c>
-      <c r="F211" t="n">
-        <v>5661.56</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="H211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr"/>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>Ambuja Cements Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E212" t="n">
-        <v>1030500</v>
-      </c>
-      <c r="F212" t="n">
-        <v>5568.31</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="H212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr"/>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>Prestige Estates Projects Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
-      <c r="E213" t="n">
-        <v>458900</v>
-      </c>
-      <c r="F213" t="n">
-        <v>5450.81</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr"/>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>ABB India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E214" t="n">
-        <v>97875</v>
-      </c>
-      <c r="F214" t="n">
-        <v>5441.8</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="H214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr"/>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>Granules India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E215" t="n">
-        <v>1076000</v>
-      </c>
-      <c r="F215" t="n">
-        <v>5240.66</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="H215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr"/>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>NTPC Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E216" t="n">
-        <v>1425000</v>
-      </c>
-      <c r="F216" t="n">
-        <v>5116.46</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="H216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr"/>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Marico Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>Agricultural Food &amp; other Products</t>
-        </is>
-      </c>
-      <c r="E217" t="n">
-        <v>762000</v>
-      </c>
-      <c r="F217" t="n">
-        <v>4992.62</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="H217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr"/>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>Tata Motors Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E218" t="n">
-        <v>719400</v>
-      </c>
-      <c r="F218" t="n">
-        <v>4877.53</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="H218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr"/>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>Reliance Industries Limited_29/05/2025</t>
-        </is>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E219" t="n">
-        <v>377500</v>
-      </c>
-      <c r="F219" t="n">
-        <v>4868.05</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="H219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr"/>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Godrej Consumer Products Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>Personal Products</t>
-        </is>
-      </c>
-      <c r="E220" t="n">
-        <v>417000</v>
-      </c>
-      <c r="F220" t="n">
-        <v>4845.54</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="H220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr"/>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>Samvardhana Motherson International Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E221" t="n">
-        <v>3656500</v>
-      </c>
-      <c r="F221" t="n">
-        <v>4812.32</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="H221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr"/>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>Steel Authority of India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E222" t="n">
-        <v>4088000</v>
-      </c>
-      <c r="F222" t="n">
-        <v>4721.64</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="H222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr"/>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Jubilant Foodworks Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
-      <c r="E223" t="n">
-        <v>696250</v>
-      </c>
-      <c r="F223" t="n">
-        <v>4641.55</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="H223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr"/>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>Shriram Finance Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E224" t="n">
-        <v>702750</v>
-      </c>
-      <c r="F224" t="n">
-        <v>4636.39</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="H224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr"/>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Indus Towers Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="E225" t="n">
-        <v>1302200</v>
-      </c>
-      <c r="F225" t="n">
-        <v>4373.44</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="H225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr"/>
-      <c r="B226" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>Grasim Industries Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E226" t="n">
-        <v>155750</v>
-      </c>
-      <c r="F226" t="n">
-        <v>4078.94</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="H226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr"/>
-      <c r="B227" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>Bharat Electronics Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="E227" t="n">
-        <v>1296750</v>
-      </c>
-      <c r="F227" t="n">
-        <v>3928.5</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="H227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr"/>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>Mahindra &amp; Mahindra Financial Services Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E228" t="n">
-        <v>1338000</v>
-      </c>
-      <c r="F228" t="n">
-        <v>3779.18</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="H228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr"/>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>United Spirits Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="E229" t="n">
-        <v>264600</v>
-      </c>
-      <c r="F229" t="n">
-        <v>3712.73</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="H229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr"/>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>LIC Housing Finance Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E230" t="n">
-        <v>647000</v>
-      </c>
-      <c r="F230" t="n">
-        <v>3669.14</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="H230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr"/>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>Tata Steel Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E231" t="n">
-        <v>2365000</v>
-      </c>
-      <c r="F231" t="n">
-        <v>3667.88</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="H231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr"/>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>Larsen &amp; Toubro Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="E232" t="n">
-        <v>101400</v>
-      </c>
-      <c r="F232" t="n">
-        <v>3549.3</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="H232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr"/>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>IDFC First Bank Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E233" t="n">
-        <v>6367500</v>
-      </c>
-      <c r="F233" t="n">
-        <v>3519.95</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="H233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr"/>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>Muthoot Finance Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E234" t="n">
-        <v>143000</v>
-      </c>
-      <c r="F234" t="n">
-        <v>3426.21</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="H234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr"/>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>Tata Consumer Products Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Agricultural Food &amp; other Products</t>
-        </is>
-      </c>
-      <c r="E235" t="n">
-        <v>328776</v>
-      </c>
-      <c r="F235" t="n">
-        <v>3312.42</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="H235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr"/>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>Bajaj Auto Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E236" t="n">
-        <v>39000</v>
-      </c>
-      <c r="F236" t="n">
-        <v>3086.75</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="H236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr"/>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>Container Corporation of India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Transport Services</t>
-        </is>
-      </c>
-      <c r="E237" t="n">
-        <v>437000</v>
-      </c>
-      <c r="F237" t="n">
-        <v>3035.84</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="H237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr"/>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>DLF Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
-      <c r="E238" t="n">
-        <v>414975</v>
-      </c>
-      <c r="F238" t="n">
-        <v>2838.84</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="H238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr"/>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>Hero MotoCorp Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E239" t="n">
-        <v>72150</v>
-      </c>
-      <c r="F239" t="n">
-        <v>2700.83</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="H239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr"/>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>PB Fintech Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Financial Technology (Fintech)</t>
-        </is>
-      </c>
-      <c r="E240" t="n">
-        <v>162500</v>
-      </c>
-      <c r="F240" t="n">
-        <v>2597.64</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="H240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr"/>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>Britannia Industries Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Food Products</t>
-        </is>
-      </c>
-      <c r="E241" t="n">
-        <v>52000</v>
-      </c>
-      <c r="F241" t="n">
-        <v>2578.99</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="H241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr"/>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
-        <is>
-          <t>SRF Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Chemicals &amp; Petrochemicals</t>
-        </is>
-      </c>
-      <c r="E242" t="n">
-        <v>86625</v>
-      </c>
-      <c r="F242" t="n">
-        <v>2559.55</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="H242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr"/>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Cipla Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E243" t="n">
-        <v>169975</v>
-      </c>
-      <c r="F243" t="n">
-        <v>2458.43</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="H243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr"/>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>CESC Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E244" t="n">
-        <v>1544400</v>
-      </c>
-      <c r="F244" t="n">
-        <v>2382.85</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr"/>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Cummins India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E245" t="n">
-        <v>76800</v>
-      </c>
-      <c r="F245" t="n">
-        <v>2349.77</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr"/>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>Mahanagar Gas Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="E246" t="n">
-        <v>162800</v>
-      </c>
-      <c r="F246" t="n">
-        <v>2271.14</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr"/>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>Zydus Lifesciences Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E247" t="n">
-        <v>247500</v>
-      </c>
-      <c r="F247" t="n">
-        <v>2199.66</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr"/>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>Bharat Heavy Electricals Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E248" t="n">
-        <v>973875</v>
-      </c>
-      <c r="F248" t="n">
-        <v>2111.26</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr"/>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Pidilite Industries Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Chemicals &amp; Petrochemicals</t>
-        </is>
-      </c>
-      <c r="E249" t="n">
-        <v>67750</v>
-      </c>
-      <c r="F249" t="n">
-        <v>1940.63</v>
-      </c>
-      <c r="G249" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr"/>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Titan Company Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E250" t="n">
-        <v>59675</v>
-      </c>
-      <c r="F250" t="n">
-        <v>1836.8</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr"/>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>KEI Industries Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E251" t="n">
-        <v>63000</v>
-      </c>
-      <c r="F251" t="n">
-        <v>1826.12</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr"/>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Manappuram Finance Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E252" t="n">
-        <v>777000</v>
-      </c>
-      <c r="F252" t="n">
-        <v>1815.46</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr"/>
-      <c r="B253" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Supreme Industries Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D253" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E253" t="n">
-        <v>51125</v>
-      </c>
-      <c r="F253" t="n">
-        <v>1757.17</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="H253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr"/>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>Nestle India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>Food Products</t>
-        </is>
-      </c>
-      <c r="E254" t="n">
-        <v>73000</v>
-      </c>
-      <c r="F254" t="n">
-        <v>1651</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr"/>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>Bharat Petroleum Corporation Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E255" t="n">
-        <v>577800</v>
-      </c>
-      <c r="F255" t="n">
-        <v>1611.2</v>
-      </c>
-      <c r="G255" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr"/>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>Godrej Properties Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
-      <c r="E256" t="n">
-        <v>74925</v>
-      </c>
-      <c r="F256" t="n">
-        <v>1600.14</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="H256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr"/>
-      <c r="B257" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C257" t="inlineStr">
-        <is>
-          <t>The Ramco Cements Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D257" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E257" t="n">
-        <v>168300</v>
-      </c>
-      <c r="F257" t="n">
-        <v>1510.32</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="H257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr"/>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Petronet LNG Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D258" t="inlineStr">
-        <is>
-          <t>Gas</t>
-        </is>
-      </c>
-      <c r="E258" t="n">
-        <v>462000</v>
-      </c>
-      <c r="F258" t="n">
-        <v>1363.82</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr"/>
-      <c r="B259" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Siemens Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D259" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E259" t="n">
-        <v>24075</v>
-      </c>
-      <c r="F259" t="n">
-        <v>1270.74</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr"/>
-      <c r="B260" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Exide Industries Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D260" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E260" t="n">
-        <v>329400</v>
-      </c>
-      <c r="F260" t="n">
-        <v>1189.63</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr"/>
-      <c r="B261" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C261" t="inlineStr">
-        <is>
-          <t>Jio Financial Services Limited_29/05/2025</t>
-        </is>
-      </c>
-      <c r="D261" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E261" t="n">
-        <v>499950</v>
-      </c>
-      <c r="F261" t="n">
-        <v>1150.58</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="H261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr"/>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Bank of India_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E262" t="n">
-        <v>1056675</v>
-      </c>
-      <c r="F262" t="n">
-        <v>1137.83</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="H262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr"/>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>Dabur India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>Personal Products</t>
-        </is>
-      </c>
-      <c r="E263" t="n">
-        <v>216250</v>
-      </c>
-      <c r="F263" t="n">
-        <v>1100.93</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="H263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr"/>
-      <c r="B264" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>Syngene International Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D264" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
-      <c r="E264" t="n">
-        <v>126000</v>
-      </c>
-      <c r="F264" t="n">
-        <v>916.59</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr"/>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Bajaj Finserv Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E265" t="n">
-        <v>43000</v>
-      </c>
-      <c r="F265" t="n">
-        <v>865.55</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr"/>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>The Phoenix Mills Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>Realty</t>
-        </is>
-      </c>
-      <c r="E266" t="n">
-        <v>51800</v>
-      </c>
-      <c r="F266" t="n">
-        <v>855.97</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr"/>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>Astral Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E267" t="n">
-        <v>63491</v>
-      </c>
-      <c r="F267" t="n">
-        <v>824.5599999999999</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr"/>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Havells India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E268" t="n">
-        <v>53500</v>
-      </c>
-      <c r="F268" t="n">
-        <v>820.66</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr"/>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>Coforge Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E269" t="n">
-        <v>9825</v>
-      </c>
-      <c r="F269" t="n">
-        <v>798.27</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr"/>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>MRF Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E270" t="n">
-        <v>655</v>
-      </c>
-      <c r="F270" t="n">
-        <v>742.53</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr"/>
-      <c r="B271" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C271" t="inlineStr">
-        <is>
-          <t>Apollo Hospitals Enterprise Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D271" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
-      <c r="E271" t="n">
-        <v>10500</v>
-      </c>
-      <c r="F271" t="n">
-        <v>696.37</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr"/>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>Power Finance Corporation Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E272" t="n">
-        <v>165100</v>
-      </c>
-      <c r="F272" t="n">
-        <v>687.97</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr"/>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>Tata Power Company Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E273" t="n">
-        <v>175500</v>
-      </c>
-      <c r="F273" t="n">
-        <v>661.55</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr"/>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>RBL Bank Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E274" t="n">
-        <v>365000</v>
-      </c>
-      <c r="F274" t="n">
-        <v>637.33</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr"/>
-      <c r="B275" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>Birlasoft Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D275" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E275" t="n">
-        <v>148000</v>
-      </c>
-      <c r="F275" t="n">
-        <v>576.83</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr"/>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>Divi's Laboratories Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E276" t="n">
-        <v>8500</v>
-      </c>
-      <c r="F276" t="n">
-        <v>493.69</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr"/>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>NMDC Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D277" t="inlineStr">
-        <is>
-          <t>Minerals &amp; Mining</t>
-        </is>
-      </c>
-      <c r="E277" t="n">
-        <v>661500</v>
-      </c>
-      <c r="F277" t="n">
-        <v>456.57</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr"/>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>The Indian Hotels Company Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
-      <c r="E278" t="n">
-        <v>56000</v>
-      </c>
-      <c r="F278" t="n">
-        <v>443.35</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr"/>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>HDFC Life Insurance Company Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D279" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E279" t="n">
-        <v>62700</v>
-      </c>
-      <c r="F279" t="n">
-        <v>430.87</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr"/>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>NHPC Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E280" t="n">
-        <v>505600</v>
-      </c>
-      <c r="F280" t="n">
-        <v>416.92</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr"/>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C281" t="inlineStr">
-        <is>
-          <t>Cholamandalam Investment and Finance Company Ltd_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D281" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E281" t="n">
-        <v>26875</v>
-      </c>
-      <c r="F281" t="n">
-        <v>410.22</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr"/>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>HDFC Bank Limited_29/05/2025</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E282" t="n">
-        <v>22000</v>
-      </c>
-      <c r="F282" t="n">
-        <v>402.56</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr"/>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Biocon Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D283" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E283" t="n">
-        <v>115000</v>
-      </c>
-      <c r="F283" t="n">
-        <v>394.97</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="H283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr"/>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Asian Paints Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E284" t="n">
-        <v>14200</v>
-      </c>
-      <c r="F284" t="n">
-        <v>333.08</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr"/>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Adani Energy Solutions Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E285" t="n">
-        <v>35625</v>
-      </c>
-      <c r="F285" t="n">
-        <v>312.34</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr"/>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Yes Bank Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D286" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E286" t="n">
-        <v>1820000</v>
-      </c>
-      <c r="F286" t="n">
-        <v>307.94</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr"/>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Info Edge (India) Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D287" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E287" t="n">
-        <v>4275</v>
-      </c>
-      <c r="F287" t="n">
-        <v>307.57</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr"/>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>IIFL Finance Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D288" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E288" t="n">
-        <v>83700</v>
-      </c>
-      <c r="F288" t="n">
-        <v>275.08</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr"/>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>PNB Housing Finance Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D289" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E289" t="n">
-        <v>27300</v>
-      </c>
-      <c r="F289" t="n">
-        <v>242.04</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr"/>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>Eicher Motors Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D290" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E290" t="n">
-        <v>4375</v>
-      </c>
-      <c r="F290" t="n">
-        <v>235.3</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr"/>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Coal India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D291" t="inlineStr">
-        <is>
-          <t>Consumable Fuels</t>
-        </is>
-      </c>
-      <c r="E291" t="n">
-        <v>55650</v>
-      </c>
-      <c r="F291" t="n">
-        <v>222.07</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr"/>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Aarti Industries Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D292" t="inlineStr">
-        <is>
-          <t>Chemicals &amp; Petrochemicals</t>
-        </is>
-      </c>
-      <c r="E292" t="n">
-        <v>54000</v>
-      </c>
-      <c r="F292" t="n">
-        <v>212.11</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr"/>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>Hindustan Petroleum Corporation Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D293" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E293" t="n">
-        <v>58725</v>
-      </c>
-      <c r="F293" t="n">
-        <v>212</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr"/>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>Hindustan Zinc Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D294" t="inlineStr">
-        <is>
-          <t>Non - Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E294" t="n">
-        <v>44100</v>
-      </c>
-      <c r="F294" t="n">
-        <v>204.84</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr"/>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>Tata Chemicals Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D295" t="inlineStr">
-        <is>
-          <t>Chemicals &amp; Petrochemicals</t>
-        </is>
-      </c>
-      <c r="E295" t="n">
-        <v>18700</v>
-      </c>
-      <c r="F295" t="n">
-        <v>161.98</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr"/>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C296" t="inlineStr">
-        <is>
-          <t>Max Healthcare Institute Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
-      <c r="E296" t="n">
-        <v>13650</v>
-      </c>
-      <c r="F296" t="n">
-        <v>150.58</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr"/>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C297" t="inlineStr">
-        <is>
-          <t>Polycab India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D297" t="inlineStr">
-        <is>
-          <t>Industrial Products</t>
-        </is>
-      </c>
-      <c r="E297" t="n">
-        <v>2875</v>
-      </c>
-      <c r="F297" t="n">
-        <v>148.59</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr"/>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C298" t="inlineStr">
-        <is>
-          <t>Solar Industries India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr">
-        <is>
-          <t>Chemicals &amp; Petrochemicals</t>
-        </is>
-      </c>
-      <c r="E298" t="n">
-        <v>1275</v>
-      </c>
-      <c r="F298" t="n">
-        <v>143.42</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr"/>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>ACC Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E299" t="n">
-        <v>6600</v>
-      </c>
-      <c r="F299" t="n">
-        <v>128.54</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr"/>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C300" t="inlineStr">
-        <is>
-          <t>Kotak Mahindra Bank Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D300" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E300" t="n">
-        <v>5600</v>
-      </c>
-      <c r="F300" t="n">
-        <v>121.94</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr"/>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C301" t="inlineStr">
-        <is>
-          <t>Lupin Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D301" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E301" t="n">
-        <v>5950</v>
-      </c>
-      <c r="F301" t="n">
-        <v>121.09</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr"/>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C302" t="inlineStr">
-        <is>
-          <t>UPL Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D302" t="inlineStr">
-        <is>
-          <t>Fertilizers &amp; Agrochemicals</t>
-        </is>
-      </c>
-      <c r="E302" t="n">
-        <v>18970</v>
-      </c>
-      <c r="F302" t="n">
-        <v>120.96</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr"/>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C303" t="inlineStr">
-        <is>
-          <t>GMR Airports Limited_29/05/2025</t>
-        </is>
-      </c>
-      <c r="D303" t="inlineStr">
-        <is>
-          <t>Transport Infrastructure</t>
-        </is>
-      </c>
-      <c r="E303" t="n">
-        <v>157500</v>
-      </c>
-      <c r="F303" t="n">
-        <v>120.57</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr"/>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C304" t="inlineStr">
-        <is>
-          <t>Indian Oil Corporation Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D304" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E304" t="n">
-        <v>87750</v>
-      </c>
-      <c r="F304" t="n">
-        <v>112.68</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr"/>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C305" t="inlineStr">
-        <is>
-          <t>Oil India Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D305" t="inlineStr">
-        <is>
-          <t>Oil</t>
-        </is>
-      </c>
-      <c r="E305" t="n">
-        <v>23650</v>
-      </c>
-      <c r="F305" t="n">
-        <v>91.79000000000001</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr"/>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C306" t="inlineStr">
-        <is>
-          <t>Patanjali Foods Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D306" t="inlineStr">
-        <is>
-          <t>Agricultural Food &amp; other Products</t>
-        </is>
-      </c>
-      <c r="E306" t="n">
-        <v>1800</v>
-      </c>
-      <c r="F306" t="n">
-        <v>32.67</v>
-      </c>
-      <c r="G306" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr"/>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C307" t="inlineStr">
-        <is>
-          <t>Oracle Financial Services Software Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D307" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E307" t="n">
-        <v>400</v>
-      </c>
-      <c r="F307" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="G307" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr"/>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C308" t="inlineStr">
-        <is>
-          <t>Sun Pharmaceutical Industries Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D308" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E308" t="n">
-        <v>1750</v>
-      </c>
-      <c r="F308" t="n">
-        <v>30.44</v>
-      </c>
-      <c r="G308" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr"/>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C309" t="inlineStr">
-        <is>
-          <t>Bosch Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D309" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E309" t="n">
-        <v>75</v>
-      </c>
-      <c r="F309" t="n">
-        <v>21.31</v>
-      </c>
-      <c r="G309" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr"/>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C310" t="inlineStr">
-        <is>
-          <t>Mphasis Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D310" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E310" t="n">
-        <v>825</v>
-      </c>
-      <c r="F310" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="G310" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr"/>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C311" t="inlineStr">
-        <is>
-          <t>LTIMindtree Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D311" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E311" t="n">
-        <v>450</v>
-      </c>
-      <c r="F311" t="n">
-        <v>20.24</v>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr"/>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C312" t="inlineStr">
-        <is>
-          <t>HCL Technologies Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D312" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E312" t="n">
-        <v>700</v>
-      </c>
-      <c r="F312" t="n">
-        <v>11.16</v>
-      </c>
-      <c r="G312" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr"/>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C313" t="inlineStr">
-        <is>
-          <t>Escorts Kubota Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D313" t="inlineStr">
-        <is>
-          <t>Agricultural, Commercial &amp; Construction Vehicles</t>
-        </is>
-      </c>
-      <c r="E313" t="n">
-        <v>300</v>
-      </c>
-      <c r="F313" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr"/>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>Siemens Limited_29/05/2025</t>
-        </is>
-      </c>
-      <c r="D314" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E314" t="n">
-        <v>150</v>
-      </c>
-      <c r="F314" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr"/>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C315" t="inlineStr">
-        <is>
-          <t>ICICI Lombard General Insurance Company Limited_24/04/2025</t>
-        </is>
-      </c>
-      <c r="D315" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E315" t="n">
-        <v>250</v>
-      </c>
-      <c r="F315" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="G315" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
-      </c>
-      <c r="H315" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
